--- a/doc/系统测试期 需求调整（20170418）.xlsx
+++ b/doc/系统测试期 需求调整（20170418）.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiang/Project/huaxia-messagae-manage/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="待解决问题" sheetId="1" r:id="rId1"/>
     <sheet name="增加模块" sheetId="2" r:id="rId2"/>
     <sheet name="检验机构清单" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -294,9 +305,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -336,8 +347,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -621,17 +632,18 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -658,8 +670,11 @@
       <c r="C2">
         <v>20170418</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>20170419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -667,7 +682,7 @@
         <v>20170418</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -678,7 +693,7 @@
         <v>20170418</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -688,8 +703,11 @@
       <c r="C5">
         <v>20170418</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="1">
+        <v>20170419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -715,13 +733,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.375" customWidth="1"/>
-    <col min="5" max="5" width="98.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" customWidth="1"/>
+    <col min="5" max="5" width="98.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -751,7 +769,7 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -762,7 +780,7 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
@@ -771,7 +789,7 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -791,368 +809,368 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2">
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="2">
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2">
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
         <v>21</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2">
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="2">
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
         <v>23</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2">
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
         <v>24</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2">
+    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1">
         <v>26</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1">
         <v>2</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="2">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
         <v>3</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1">
         <v>4</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="2">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
         <v>5</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="2">
+    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
         <v>6</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1">
         <v>7</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">

--- a/doc/系统测试期 需求调整（20170418）.xlsx
+++ b/doc/系统测试期 需求调整（20170418）.xlsx
@@ -325,12 +325,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -345,10 +351,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -632,7 +639,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -660,17 +667,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>20170418</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>20170419</v>
       </c>
     </row>
@@ -693,17 +700,17 @@
         <v>20170418</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>20170418</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>20170419</v>
       </c>
     </row>
@@ -806,7 +813,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/doc/系统测试期 需求调整（20170418）.xlsx
+++ b/doc/系统测试期 需求调整（20170418）.xlsx
@@ -354,8 +354,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -639,7 +639,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -667,17 +667,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>20170418</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>20170419</v>
       </c>
     </row>
@@ -700,28 +700,28 @@
         <v>20170418</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>20170418</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>20170419</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>20170418</v>
       </c>
     </row>
@@ -737,7 +737,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -776,7 +776,7 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -787,7 +787,7 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
@@ -796,7 +796,7 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/系统测试期 需求调整（20170418）.xlsx
+++ b/doc/系统测试期 需求调整（20170418）.xlsx
@@ -325,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +335,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,11 +357,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -639,7 +646,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -681,22 +688,22 @@
         <v>20170419</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>20170418</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>20170418</v>
       </c>
     </row>
@@ -737,7 +744,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -813,7 +820,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
